--- a/Jogos_do_Dia/2023-09-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -658,13 +658,13 @@
         <v>46</v>
       </c>
       <c r="G2">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="H2">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>1.01</v>
@@ -679,7 +679,7 @@
         <v>3.84</v>
       </c>
       <c r="N2">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -872,13 +872,13 @@
         <v>48</v>
       </c>
       <c r="G4">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H4">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="I4">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J4">
         <v>1.1</v>
@@ -893,7 +893,7 @@
         <v>2.65</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -979,13 +979,13 @@
         <v>49</v>
       </c>
       <c r="G5">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H5">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I5">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>1.12</v>
@@ -994,16 +994,16 @@
         <v>5.5</v>
       </c>
       <c r="L5">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="M5">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="N5">
         <v>2.65</v>
       </c>
       <c r="O5">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P5">
         <v>1.65</v>
@@ -1042,13 +1042,13 @@
         <v>3</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AE5">
         <v>1.19</v>

--- a/Jogos_do_Dia/2023-09-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -658,13 +658,13 @@
         <v>46</v>
       </c>
       <c r="G2">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3.78</v>
       </c>
       <c r="J2">
         <v>1.01</v>
@@ -679,10 +679,10 @@
         <v>3.84</v>
       </c>
       <c r="N2">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P2">
         <v>1.33</v>
@@ -721,28 +721,28 @@
         <v>2.89</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -828,28 +828,28 @@
         <v>2.57</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -872,13 +872,13 @@
         <v>48</v>
       </c>
       <c r="G4">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="H4">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="I4">
-        <v>2.75</v>
+        <v>2.84</v>
       </c>
       <c r="J4">
         <v>1.1</v>
@@ -893,7 +893,7 @@
         <v>2.65</v>
       </c>
       <c r="N4">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -979,13 +979,13 @@
         <v>49</v>
       </c>
       <c r="G5">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="H5">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="J5">
         <v>1.12</v>
@@ -994,16 +994,16 @@
         <v>5.5</v>
       </c>
       <c r="L5">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M5">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="N5">
         <v>2.65</v>
       </c>
       <c r="O5">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P5">
         <v>1.65</v>
